--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC03-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC03-Workbook.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-S2024\BUSI201-S2024-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C00AB-B01C-4DA4-95A7-00EDBB4705ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F847A55-34B8-42AF-B583-BF82B2D83DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFB51DB3-04EE-47BB-A3CB-D850018C9256}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BFB51DB3-04EE-47BB-A3CB-D850018C9256}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
-    <sheet name="Operations" sheetId="11" r:id="rId2"/>
-    <sheet name="Combined" sheetId="14" r:id="rId3"/>
-    <sheet name="Logic" sheetId="12" r:id="rId4"/>
-    <sheet name="References" sheetId="3" r:id="rId5"/>
+    <sheet name="Operations" sheetId="11" r:id="rId1"/>
+    <sheet name="Combined" sheetId="14" r:id="rId2"/>
+    <sheet name="Logic" sheetId="12" r:id="rId3"/>
+    <sheet name="References" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1267,6 +1266,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,6 +1290,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1298,27 +1318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,9 +1341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1382,7 +1381,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1488,7 +1487,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1630,29 +1629,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900B26D7-47E7-47CA-A3CE-AC2A68D55EF9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D57B2AB-725A-402B-8719-EAABC892537F}">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
@@ -1672,26 +1659,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1">
       <c r="C3" s="12"/>
@@ -1735,13 +1722,13 @@
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1">
@@ -1769,26 +1756,26 @@
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="2:17" ht="45" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="2:17" ht="15" thickBot="1">
       <c r="J9" s="22"/>
@@ -1817,7 +1804,7 @@
     <row r="11" spans="2:17" ht="45" customHeight="1">
       <c r="B11" s="19"/>
       <c r="C11" s="20">
-        <f>E11*G11*I11</f>
+        <f>E11-G11</f>
         <v>0</v>
       </c>
       <c r="D11" s="14"/>
@@ -1830,13 +1817,13 @@
       <c r="K11" s="23">
         <v>1</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1">
@@ -1864,26 +1851,26 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:17" ht="45" customHeight="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1">
       <c r="J15" s="22"/>
@@ -1925,13 +1912,13 @@
       <c r="K17" s="23">
         <v>1</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="2:17" ht="15" thickBot="1">
@@ -1959,26 +1946,26 @@
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:17" ht="45" customHeight="1">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="2:17" ht="15" thickBot="1">
       <c r="J21" s="22"/>
@@ -2020,13 +2007,13 @@
       <c r="K23" s="23">
         <v>1</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="2:17">
@@ -2054,26 +2041,26 @@
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="2:17" ht="45" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
     </row>
     <row r="27" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
       <c r="J27" s="22"/>
@@ -2115,13 +2102,13 @@
       <c r="K29" s="23">
         <v>1</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
       <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
@@ -2176,27 +2163,27 @@
     <row r="62" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:Q26"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:Q14"/>
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L11:P11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="L23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1C7ED-ECEC-4DFA-BEDE-C3E09A642407}">
   <dimension ref="B2:I33"/>
   <sheetViews>
@@ -2217,48 +2204,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20" customHeight="1" thickBot="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="40">
         <v>0.1</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="40">
         <v>0.2</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="40">
         <v>0.3</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="40">
         <v>0.4</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9" ht="20" customHeight="1" thickTop="1">
       <c r="B4" s="14" t="s">
@@ -2282,7 +2269,7 @@
       <c r="H4" s="14">
         <v>88</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="2:9" ht="20" customHeight="1">
       <c r="B5" s="14" t="s">
@@ -2306,7 +2293,7 @@
       <c r="H5" s="14">
         <v>91</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="2:9" ht="20" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -2330,7 +2317,7 @@
       <c r="H6" s="14">
         <v>79</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="2:9" ht="20" customHeight="1">
       <c r="B7" s="14" t="s">
@@ -2354,7 +2341,7 @@
       <c r="H7" s="14">
         <v>99</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="2:9" ht="20" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -2378,7 +2365,7 @@
       <c r="H8" s="14">
         <v>92</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="2:9" ht="20" customHeight="1">
       <c r="B9" s="14" t="s">
@@ -2402,7 +2389,7 @@
       <c r="H9" s="14">
         <v>87</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:9" ht="20" customHeight="1">
       <c r="B10" s="14" t="s">
@@ -2426,7 +2413,7 @@
       <c r="H10" s="14">
         <v>94</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="20" customHeight="1">
       <c r="B11" s="14" t="s">
@@ -2450,7 +2437,7 @@
       <c r="H11" s="14">
         <v>90</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="2:9" ht="20" customHeight="1">
       <c r="B12" s="14" t="s">
@@ -2474,7 +2461,7 @@
       <c r="H12" s="14">
         <v>78</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="2:9" ht="20" customHeight="1">
       <c r="B13" s="14" t="s">
@@ -2498,7 +2485,7 @@
       <c r="H13" s="14">
         <v>91</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="2:9" ht="20" customHeight="1">
       <c r="B14" s="14" t="s">
@@ -2522,7 +2509,7 @@
       <c r="H14" s="14">
         <v>85</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="2:9" ht="20" customHeight="1">
       <c r="B15" s="14" t="s">
@@ -2546,7 +2533,7 @@
       <c r="H15" s="14">
         <v>80</v>
       </c>
-      <c r="I15" s="54"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="2:9" ht="20" customHeight="1">
       <c r="B16" s="14" t="s">
@@ -2570,7 +2557,7 @@
       <c r="H16" s="14">
         <v>79</v>
       </c>
-      <c r="I16" s="54"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="2:9" ht="20" customHeight="1">
       <c r="B17" s="14" t="s">
@@ -2594,7 +2581,7 @@
       <c r="H17" s="14">
         <v>91</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="2:9" ht="20" customHeight="1">
       <c r="B18" s="14" t="s">
@@ -2618,7 +2605,7 @@
       <c r="H18" s="14">
         <v>92</v>
       </c>
-      <c r="I18" s="54"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" ht="20" customHeight="1">
       <c r="B19" s="14" t="s">
@@ -2642,7 +2629,7 @@
       <c r="H19" s="14">
         <v>90</v>
       </c>
-      <c r="I19" s="54"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9" ht="20" customHeight="1">
       <c r="B20" s="14" t="s">
@@ -2666,7 +2653,7 @@
       <c r="H20" s="14">
         <v>93</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:9" ht="20" customHeight="1">
       <c r="B21" s="14" t="s">
@@ -2690,7 +2677,7 @@
       <c r="H21" s="14">
         <v>86</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="2:9" ht="20" customHeight="1">
       <c r="B22" s="14" t="s">
@@ -2714,7 +2701,7 @@
       <c r="H22" s="14">
         <v>94</v>
       </c>
-      <c r="I22" s="54"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:9" ht="20" customHeight="1">
       <c r="B23" s="14" t="s">
@@ -2738,7 +2725,7 @@
       <c r="H23" s="14">
         <v>90</v>
       </c>
-      <c r="I23" s="54"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="2:9" ht="20" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -2762,7 +2749,7 @@
       <c r="H24" s="14">
         <v>85</v>
       </c>
-      <c r="I24" s="54"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="2:9" ht="20" customHeight="1">
       <c r="B25" s="14" t="s">
@@ -2786,7 +2773,7 @@
       <c r="H25" s="14">
         <v>62</v>
       </c>
-      <c r="I25" s="54"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="2:9" ht="20" customHeight="1">
       <c r="B26" s="14" t="s">
@@ -2810,7 +2797,7 @@
       <c r="H26" s="14">
         <v>93</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="2:9" ht="20" customHeight="1">
       <c r="B27" s="14" t="s">
@@ -2834,7 +2821,7 @@
       <c r="H27" s="14">
         <v>89</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="20" customHeight="1">
       <c r="B28" s="14" t="s">
@@ -2858,7 +2845,7 @@
       <c r="H28" s="14">
         <v>95</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="2:9" ht="20" customHeight="1">
       <c r="B29" s="14" t="s">
@@ -2882,7 +2869,7 @@
       <c r="H29" s="14">
         <v>92</v>
       </c>
-      <c r="I29" s="54"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="2:9" ht="20" customHeight="1">
       <c r="B30" s="14" t="s">
@@ -2906,7 +2893,7 @@
       <c r="H30" s="14">
         <v>87</v>
       </c>
-      <c r="I30" s="54"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="2:9" ht="20" customHeight="1">
       <c r="B31" s="14" t="s">
@@ -2930,7 +2917,7 @@
       <c r="H31" s="14">
         <v>59</v>
       </c>
-      <c r="I31" s="54"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="2:9" ht="20" customHeight="1">
       <c r="B32" s="14" t="s">
@@ -2954,10 +2941,10 @@
       <c r="H32" s="14">
         <v>90</v>
       </c>
-      <c r="I32" s="54"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:9" ht="20" customHeight="1">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="42" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2966,19 +2953,19 @@
       <c r="D33" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="42">
         <v>92</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="42">
         <v>86</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="42">
         <v>88</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="42">
         <v>89</v>
       </c>
-      <c r="I33" s="56"/>
+      <c r="I33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2991,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B622FB38-CC55-4E80-904A-AFB51E61814C}">
   <dimension ref="A2:F25"/>
   <sheetViews>
@@ -3005,22 +2992,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="B4" s="36"/>
@@ -3033,13 +3020,13 @@
       <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6" ht="10" customHeight="1" thickBot="1">
       <c r="A6" s="37"/>
@@ -3057,13 +3044,13 @@
       <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="10" customHeight="1" thickBot="1">
       <c r="A10" s="37"/>
@@ -3081,13 +3068,13 @@
       <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="10" customHeight="1" thickBot="1">
       <c r="A14" s="37"/>
@@ -3105,13 +3092,13 @@
       <c r="A17" s="38">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" ht="10" customHeight="1" thickBot="1">
       <c r="A18" s="37"/>
@@ -3152,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E9DB5-7C33-49FD-977D-FC77BC6C4ED1}">
   <dimension ref="B2:M23"/>
   <sheetViews>
@@ -3171,44 +3158,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="20" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="2:13" ht="20" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="2">
         <v>0.1</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="31">
         <v>0.03</v>
       </c>
